--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1723934.540373737</v>
+        <v>1828873.770549102</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10174970.98943547</v>
+        <v>10191288.4364961</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>120.2025057368068</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>345.0044601702991</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>60.74247635996112</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>86.56018051486754</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>199.1961742994395</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>164.5895708850352</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>97.07542547719757</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>140.7458886699304</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>247.3543611261783</v>
+        <v>370.0648965483579</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>152.0684032264859</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>194.4650050997973</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1610,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206847</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444104</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2014,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>13.03790159951011</v>
+        <v>243.1373908222617</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>105.6507867899502</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890443</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444154</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2482,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>18.70843787977307</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>130.5513683573701</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016517</v>
+        <v>103.2360561910028</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444126</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>180.667058612139</v>
+        <v>106.5290632934499</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>132.5039425933998</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,16 +3243,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953139</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>10.63412424768797</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336586</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>145.2857567969026</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>143.7703193541483</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>137.9792024346629</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>113.8415422301052</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2316.223448465206</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2062.642387729386</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2062.642387729386</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2062.642387729386</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.016509199431</v>
+        <v>1689.176629468305</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.016509199431</v>
+        <v>1689.176629468305</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>1675.639966294861</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2238.100841080695</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2561.393271046732</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2322.222117337205</v>
+        <v>788.8276219385416</v>
       </c>
       <c r="C4" t="n">
-        <v>2153.285934409298</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="D4" t="n">
-        <v>2003.169294996962</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>1855.256201414569</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>1708.366253916659</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916659</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134517</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366699</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366699</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>3014.008748936225</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>2952.652712208992</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>2952.652712208992</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W4" t="n">
-        <v>2952.652712208992</v>
+        <v>1057.910612541375</v>
       </c>
       <c r="X4" t="n">
-        <v>2724.663161310975</v>
+        <v>970.4760867687813</v>
       </c>
       <c r="Y4" t="n">
-        <v>2503.870582167445</v>
+        <v>970.4760867687813</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1879.829578210441</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2062.642387729386</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250375</v>
+        <v>2062.642387729386</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250375</v>
+        <v>1689.176629468305</v>
       </c>
       <c r="Y5" t="n">
-        <v>2266.429418274563</v>
+        <v>1689.176629468305</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>590.2049751143488</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>884.9085321458207</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>725.9304417640997</v>
+        <v>680.4536379130282</v>
       </c>
       <c r="C7" t="n">
-        <v>627.8744564335971</v>
+        <v>511.5174549851213</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>361.4008155727855</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672848</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672848</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.361036635887</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="X7" t="n">
-        <v>1128.37148573787</v>
+        <v>1082.894681886798</v>
       </c>
       <c r="Y7" t="n">
-        <v>907.5789065943394</v>
+        <v>862.1021027432679</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609169</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609169</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609169</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339055</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077975</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102163</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.7293032143256</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621292</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251686</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251686</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>394.3777680445653</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,13 +5126,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703109</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168578</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362652</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585279</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2341.919755080347</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349511</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5677,46 +5679,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797678</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910802</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279796</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832656</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487561</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510502</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1964.291482935239</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.606994729352</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.189824692392</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>119.2902967703784</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135321</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168628</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362702</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6214,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683104</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459514</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180445</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057087</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.06254548756</v>
+        <v>2342.684238942884</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510501</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854699</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854699</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817739</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919721</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761911</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6475,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1505.893875458607</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W31" t="n">
-        <v>1216.476705421646</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X31" t="n">
-        <v>988.4871545236284</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y31" t="n">
-        <v>988.4871545236284</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L33" t="n">
         <v>739.5354516872161</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1063.573343591579</v>
+        <v>2823.935653491667</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>2654.99947056376</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570823</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279808</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853366</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580266</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580266</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.10824923517</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258111</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602309</v>
+        <v>3998.467906606302</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602309</v>
+        <v>3743.783418400415</v>
       </c>
       <c r="W34" t="n">
-        <v>1466.014387565348</v>
+        <v>3454.366248363454</v>
       </c>
       <c r="X34" t="n">
-        <v>1466.014387565348</v>
+        <v>3226.376697465437</v>
       </c>
       <c r="Y34" t="n">
-        <v>1245.221808421818</v>
+        <v>3005.584118321907</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3044.370838283067</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2875.43465535516</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2725.318015942824</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>2577.404922360431</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>2430.514974862521</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4507.978318053499</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4218.903091397697</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3964.21860319181</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3674.801433154854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3446.811882256837</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3226.019303113307</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,34 +7186,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>2968.622055159635</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>4143.154308274269</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>3888.469820068382</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>3599.052650031422</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>3371.063099133405</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>3150.270519989875</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7591,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1029.292738813773</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7639,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>21.89339468985722</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780633</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>273.146572789734</v>
+        <v>43.04708356698248</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>180.533687599294</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>15.88259428919909</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>77.79022981064182</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>71.47058471168904</v>
+        <v>145.6085800303781</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>34.74287850522802</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>154.8900140445809</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>142.4141550350959</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>79.42624789262538</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>111.8681131589319</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>891159.1181142773</v>
+        <v>899477.8166157764</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>891159.1181142773</v>
+        <v>899477.8166157764</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>876221.8101769292</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>876221.810176929</v>
+        <v>876221.8101769292</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876221.810176929</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876221.8101769293</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>876221.8101769293</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>876221.8101769292</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="F2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="N2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="O2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907539</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403376</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810784</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810783</v>
+        <v>136726.2736921024</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810795</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756632</v>
+      </c>
+      <c r="F4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.200356756492</v>
-      </c>
       <c r="G4" t="n">
-        <v>9337.200356756493</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756452</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756513</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756492</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756643</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756617</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756661</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.200356756592</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-970999.7267587022</v>
+        <v>-790212.6350494758</v>
       </c>
       <c r="C6" t="n">
-        <v>357745.0189688905</v>
+        <v>324539.1485264442</v>
       </c>
       <c r="D6" t="n">
-        <v>357745.0189688907</v>
+        <v>165117.8785285526</v>
       </c>
       <c r="E6" t="n">
-        <v>108951.7628027347</v>
+        <v>108951.7628027353</v>
       </c>
       <c r="F6" t="n">
-        <v>434364.2246100906</v>
+        <v>434364.2246100903</v>
       </c>
       <c r="G6" t="n">
-        <v>434364.2246100907</v>
+        <v>434364.2246100904</v>
       </c>
       <c r="H6" t="n">
         <v>434364.2246100903</v>
       </c>
       <c r="I6" t="n">
-        <v>434364.2246100904</v>
+        <v>434364.2246100902</v>
       </c>
       <c r="J6" t="n">
-        <v>216833.0222128128</v>
+        <v>266759.0468001075</v>
       </c>
       <c r="K6" t="n">
-        <v>434364.2246100906</v>
+        <v>434364.2246100902</v>
       </c>
       <c r="L6" t="n">
-        <v>434364.2246100907</v>
+        <v>386070.2546018995</v>
       </c>
       <c r="M6" t="n">
-        <v>349309.1966745782</v>
+        <v>349309.1966745784</v>
       </c>
       <c r="N6" t="n">
-        <v>434364.2246100905</v>
+        <v>434364.2246100903</v>
       </c>
       <c r="O6" t="n">
-        <v>434364.2246100905</v>
+        <v>434364.2246100903</v>
       </c>
       <c r="P6" t="n">
-        <v>434364.2246100902</v>
+        <v>434364.2246100903</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>86.45567924342691</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>24.72664050816991</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>225.4693618456517</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>139.1494748741696</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>166.076717471568</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>163.1626875850997</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>70.17139562143026</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>5.688073976638805</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135.3794805373022</v>
+        <v>12.66894511512271</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>13.95740503254237</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>24.11964825229754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,16 +31846,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32078,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.2560498238277</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,19 +32314,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>152.5685698206127</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>368.6279838366847</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>302.9675447508045</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L33" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33526,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +34000,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,25 +34213,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.9556134883073677</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>355.3309544215482</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.2742757378062</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36047,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191247</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>25.73094315394599</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>237.2862717533515</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>160.8335108287862</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753338</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L33" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899124</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902408</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37859,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1828873.770549102</v>
+        <v>1824778.129044337</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>120.2025057368068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>241.9058054044793</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>93.89254046638139</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>86.56018051486754</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.658084792058</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>164.5895708850352</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>140.7458886699304</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542813</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.0648965483579</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>238.6591887249604</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>152.0684032264859</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>61.42978662487941</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>281.6778446725259</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>20.43112068613158</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>74.53917159609115</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>243.1373908222617</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>18.70843787977262</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>247.5867185477173</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>103.2360561910028</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>106.5290632934499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>220.6346102953139</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>143.7703193541483</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>113.8415422301052</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>153.5899618586515</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1302.576789404184</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C2" t="n">
-        <v>1302.576789404184</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2316.223448465206</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2062.642387729386</v>
+        <v>2317.990030011792</v>
       </c>
       <c r="V2" t="n">
-        <v>2062.642387729386</v>
+        <v>1986.927142668221</v>
       </c>
       <c r="W2" t="n">
-        <v>2062.642387729386</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="X2" t="n">
-        <v>1689.176629468305</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="Y2" t="n">
-        <v>1689.176629468305</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217535</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118699</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.639966294861</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
-        <v>2561.393271046732</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>788.8276219385416</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C4" t="n">
-        <v>619.8914390106347</v>
+        <v>292.9776840319553</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1057.910612541375</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>970.4760867687813</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y4" t="n">
-        <v>970.4760867687813</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>690.4032258886157</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974333</v>
+        <v>332.1375272818652</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2062.642387729386</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2062.642387729386</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1689.176629468305</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1689.176629468305</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143488</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458207</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.4536379130282</v>
+        <v>716.5983551657494</v>
       </c>
       <c r="C7" t="n">
-        <v>511.5174549851213</v>
+        <v>547.6621722378425</v>
       </c>
       <c r="D7" t="n">
-        <v>361.4008155727855</v>
+        <v>397.5455328255067</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>249.6324392431136</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>102.7424917452032</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.884232784815</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.894681886798</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.1021027432679</v>
+        <v>898.2468199959891</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>934.5673701373257</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>463.6594280995014</v>
+        <v>838.5106002518386</v>
       </c>
       <c r="D10" t="n">
-        <v>463.6594280995014</v>
+        <v>688.3939608395028</v>
       </c>
       <c r="E10" t="n">
-        <v>463.6594280995014</v>
+        <v>540.4808672571097</v>
       </c>
       <c r="F10" t="n">
-        <v>463.6594280995014</v>
+        <v>393.5909197591993</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339183</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,31 +5038,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5120,7 +5120,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797186</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1759.983708831312</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5369,16 +5369,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5415,25 +5415,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277355</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5506,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>169.1087555692761</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5892,19 +5892,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998286</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2342.684238942884</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2123.082773965825</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2823.935653491667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2654.99947056376</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D34" t="n">
-        <v>2504.882831151424</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>2504.882831151424</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3998.467906606302</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3743.783418400415</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3454.366248363454</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3226.376697465437</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3005.584118321907</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6940,7 +6940,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7077,19 +7077,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7165,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7183,10 +7183,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7268,13 +7268,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2968.622055159635</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C40" t="n">
-        <v>2799.685872231728</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D40" t="n">
-        <v>2799.685872231728</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>2651.772778649335</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4143.154308274269</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3888.469820068382</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3599.052650031422</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>3371.063099133405</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>3150.270519989875</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.644273983533</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1029.292738813773</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.292738813773</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.154262550759</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7848,10 +7848,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R3" t="n">
-        <v>21.89339468985722</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780633</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>4.506629716718237</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>124.9899273367997</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>65.75554125013274</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>43.04708356698248</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>121.5862749664513</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>77.79022981064182</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>142.4141550350959</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>111.8681131589319</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>876221.8101769292</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876221.8101769291</v>
+        <v>876221.810176929</v>
       </c>
     </row>
     <row r="13">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583913</v>
@@ -26322,40 +26322,40 @@
         <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="O2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,22 +26420,22 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921024</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="F4" t="n">
         <v>9337.200356756632</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="G4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
@@ -26447,13 +26447,13 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-790212.6350494758</v>
+        <v>-790212.635049475</v>
       </c>
       <c r="C6" t="n">
-        <v>324539.1485264442</v>
+        <v>324539.1485264441</v>
       </c>
       <c r="D6" t="n">
-        <v>165117.8785285526</v>
+        <v>165117.8785285521</v>
       </c>
       <c r="E6" t="n">
-        <v>108951.7628027353</v>
+        <v>108604.3835483784</v>
       </c>
       <c r="F6" t="n">
-        <v>434364.2246100903</v>
+        <v>434016.8453557329</v>
       </c>
       <c r="G6" t="n">
-        <v>434364.2246100904</v>
+        <v>434016.8453557332</v>
       </c>
       <c r="H6" t="n">
-        <v>434364.2246100903</v>
+        <v>434016.8453557331</v>
       </c>
       <c r="I6" t="n">
-        <v>434364.2246100902</v>
+        <v>434016.8453557332</v>
       </c>
       <c r="J6" t="n">
-        <v>266759.0468001075</v>
+        <v>266411.6675457506</v>
       </c>
       <c r="K6" t="n">
-        <v>434364.2246100902</v>
+        <v>434016.8453557331</v>
       </c>
       <c r="L6" t="n">
-        <v>386070.2546018995</v>
+        <v>385722.8753475426</v>
       </c>
       <c r="M6" t="n">
-        <v>349309.1966745784</v>
+        <v>348961.8174202213</v>
       </c>
       <c r="N6" t="n">
-        <v>434364.2246100903</v>
+        <v>434016.8453557332</v>
       </c>
       <c r="O6" t="n">
-        <v>434364.2246100903</v>
+        <v>434016.8453557334</v>
       </c>
       <c r="P6" t="n">
-        <v>434364.2246100903</v>
+        <v>434016.8453557335</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>86.45567924342691</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>9.139444723982706</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>54.72293255183097</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>139.1494748741696</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2722852802038</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>163.1626875850997</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>5.688073976638805</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.325851919376</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.66894511512271</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>147.5787499310932</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>13.95740503254237</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>83.32522828944138</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,34 +31278,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328825</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33499,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9556134883073677</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215482</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35038,7 +35038,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>191.358233988438</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1824778.129044337</v>
+        <v>1826538.659347122</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>42.68052496925104</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>241.9058054044793</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>93.89254046638139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542813</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>147.0290144562267</v>
       </c>
       <c r="Y8" t="n">
-        <v>238.6591887249604</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42978662487941</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>281.6778446725259</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>74.53917159609115</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>247.5867185477173</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>104.8913819999782</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>12.74007641194018</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.0280580960833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>153.5899618586515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1634.158487398107</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>1634.158487398107</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="E2" t="n">
         <v>1248.370234799863</v>
@@ -4330,13 +4330,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2317.990030011792</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1986.927142668221</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1634.158487398107</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1634.158487398107</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1634.158487398107</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4412,25 +4412,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.9138669598622</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9776840319553</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
         <v>51.2467865680031</v>
@@ -4488,25 +4488,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4527,13 +4527,13 @@
         <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.344461831649</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>864.354910933632</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901019</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="5">
@@ -4570,10 +4570,10 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057899</v>
@@ -4649,16 +4649,16 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657494</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378425</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255067</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431136</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452032</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4725,16 +4725,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959891</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4843,13 +4843,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2972.837166339057</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518386</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395028</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571097</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591993</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339183</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051533</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1759.983708831312</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1505.299220625425</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5533,16 +5533,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367892</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>336.3048548543961</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>336.3048548543961</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>169.1087555692761</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.8412329032296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1727.373486017864</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1472.688997811978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1183.271827775017</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>955.2822768769995</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.4896977334694</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6363,19 +6363,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>366.9636532421608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>199.7675539570408</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6600,19 +6600,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>388.6197041282753</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7183,13 +7183,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.2707707770319</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>634.334587849125</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7782,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7848,10 +7848,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>168.7434581780637</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111062</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.506629716718237</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>65.75554125013274</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>35.40333084624568</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5874149221290565</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876221.810176929</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="13">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
         <v>544823.954790754</v>
@@ -26352,10 +26352,10 @@
         <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,13 +26423,13 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
@@ -26444,19 +26444,19 @@
         <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="L4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="L4" t="n">
-        <v>9337.200356756653</v>
-      </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-790212.635049475</v>
+        <v>-790212.6350494754</v>
       </c>
       <c r="C6" t="n">
-        <v>324539.1485264441</v>
+        <v>324539.1485264443</v>
       </c>
       <c r="D6" t="n">
-        <v>165117.8785285521</v>
+        <v>165117.8785285526</v>
       </c>
       <c r="E6" t="n">
-        <v>108604.3835483784</v>
+        <v>108917.0248772993</v>
       </c>
       <c r="F6" t="n">
-        <v>434016.8453557329</v>
+        <v>434329.4866846545</v>
       </c>
       <c r="G6" t="n">
-        <v>434016.8453557332</v>
+        <v>434329.4866846544</v>
       </c>
       <c r="H6" t="n">
-        <v>434016.8453557331</v>
+        <v>434329.4866846546</v>
       </c>
       <c r="I6" t="n">
-        <v>434016.8453557332</v>
+        <v>434329.4866846548</v>
       </c>
       <c r="J6" t="n">
-        <v>266411.6675457506</v>
+        <v>266724.3088746719</v>
       </c>
       <c r="K6" t="n">
-        <v>434016.8453557331</v>
+        <v>434329.4866846545</v>
       </c>
       <c r="L6" t="n">
-        <v>385722.8753475426</v>
+        <v>386035.5166764639</v>
       </c>
       <c r="M6" t="n">
-        <v>348961.8174202213</v>
+        <v>349274.4587491425</v>
       </c>
       <c r="N6" t="n">
-        <v>434016.8453557332</v>
+        <v>434329.4866846545</v>
       </c>
       <c r="O6" t="n">
-        <v>434016.8453557334</v>
+        <v>434329.4866846544</v>
       </c>
       <c r="P6" t="n">
-        <v>434016.8453557335</v>
+        <v>434329.4866846545</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>339.2498451030107</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>9.139444723982706</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>54.72293255183097</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>55.73584717546845</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.325851919376</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>222.7020862222423</v>
       </c>
       <c r="Y8" t="n">
-        <v>147.5787499310932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>83.32522828944138</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>535.6747904601043</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419607</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
